--- a/forms/vwr_form.xlsx
+++ b/forms/vwr_form.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3bd2985b379b5a/Desktop/Autofill 1.0.2/forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3bd2985b379b5a/Documents/Autofill/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{319C6BE4-69F6-4E4D-917F-C570888F1198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A810DA3-9FBF-4E2E-B2BB-BBA800447474}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{319C6BE4-69F6-4E4D-917F-C570888F1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A91A36-4583-4785-A29A-76FA912EDF03}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{911B92C4-89C5-4099-8730-B4C55AE69195}"/>
+    <workbookView xWindow="-28920" yWindow="2850" windowWidth="29040" windowHeight="15840" xr2:uid="{911B92C4-89C5-4099-8730-B4C55AE69195}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="340">
   <si>
     <t>Supplier</t>
   </si>
@@ -1050,6 +1051,12 @@
   </si>
   <si>
     <t>(800)854-0530</t>
+  </si>
+  <si>
+    <t>Vendor Part Number</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1544,78 +1551,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,6 +1632,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2123,7 +2130,7 @@
   <dimension ref="A1:FX8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ6" sqref="BQ6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2706,235 +2713,235 @@
       </c>
     </row>
     <row r="2" spans="1:180" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92" t="s">
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="94" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-      <c r="BA2" s="95"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="97" t="s">
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="BD2" s="98"/>
-      <c r="BE2" s="98"/>
-      <c r="BF2" s="98"/>
-      <c r="BG2" s="98"/>
-      <c r="BH2" s="98"/>
-      <c r="BI2" s="98"/>
-      <c r="BJ2" s="98"/>
-      <c r="BK2" s="98"/>
-      <c r="BL2" s="98"/>
-      <c r="BM2" s="99"/>
-      <c r="BN2" s="100" t="s">
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="74"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
-      <c r="BR2" s="101"/>
-      <c r="BS2" s="101"/>
-      <c r="BT2" s="101"/>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
-      <c r="BW2" s="101"/>
-      <c r="BX2" s="101"/>
-      <c r="BY2" s="101"/>
-      <c r="BZ2" s="101"/>
-      <c r="CA2" s="101"/>
-      <c r="CB2" s="101"/>
-      <c r="CC2" s="101"/>
-      <c r="CD2" s="101"/>
-      <c r="CE2" s="101"/>
-      <c r="CF2" s="101"/>
-      <c r="CG2" s="101"/>
-      <c r="CH2" s="101"/>
-      <c r="CI2" s="101"/>
-      <c r="CJ2" s="101"/>
-      <c r="CK2" s="102"/>
-      <c r="CL2" s="103" t="s">
+      <c r="BO2" s="77"/>
+      <c r="BP2" s="77"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="77"/>
+      <c r="BY2" s="77"/>
+      <c r="BZ2" s="77"/>
+      <c r="CA2" s="77"/>
+      <c r="CB2" s="77"/>
+      <c r="CC2" s="77"/>
+      <c r="CD2" s="77"/>
+      <c r="CE2" s="77"/>
+      <c r="CF2" s="77"/>
+      <c r="CG2" s="77"/>
+      <c r="CH2" s="77"/>
+      <c r="CI2" s="77"/>
+      <c r="CJ2" s="77"/>
+      <c r="CK2" s="78"/>
+      <c r="CL2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="CM2" s="104"/>
-      <c r="CN2" s="105"/>
-      <c r="CO2" s="77" t="s">
+      <c r="CM2" s="80"/>
+      <c r="CN2" s="81"/>
+      <c r="CO2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CP2" s="78"/>
-      <c r="CQ2" s="61" t="s">
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="CR2" s="62"/>
-      <c r="CS2" s="62"/>
-      <c r="CT2" s="62"/>
-      <c r="CU2" s="62"/>
-      <c r="CV2" s="62"/>
-      <c r="CW2" s="62"/>
-      <c r="CX2" s="62"/>
-      <c r="CY2" s="62"/>
-      <c r="CZ2" s="62"/>
-      <c r="DA2" s="63"/>
-      <c r="DB2" s="64" t="s">
+      <c r="CR2" s="91"/>
+      <c r="CS2" s="91"/>
+      <c r="CT2" s="91"/>
+      <c r="CU2" s="91"/>
+      <c r="CV2" s="91"/>
+      <c r="CW2" s="91"/>
+      <c r="CX2" s="91"/>
+      <c r="CY2" s="91"/>
+      <c r="CZ2" s="91"/>
+      <c r="DA2" s="92"/>
+      <c r="DB2" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="DC2" s="64"/>
-      <c r="DD2" s="64"/>
-      <c r="DE2" s="64"/>
-      <c r="DF2" s="65" t="s">
+      <c r="DC2" s="93"/>
+      <c r="DD2" s="93"/>
+      <c r="DE2" s="93"/>
+      <c r="DF2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="DG2" s="66"/>
-      <c r="DH2" s="67"/>
+      <c r="DG2" s="95"/>
+      <c r="DH2" s="96"/>
       <c r="DI2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="DJ2" s="68" t="s">
+      <c r="DJ2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="DK2" s="69"/>
-      <c r="DL2" s="69"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="71" t="s">
+      <c r="DK2" s="98"/>
+      <c r="DL2" s="98"/>
+      <c r="DM2" s="99"/>
+      <c r="DN2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="DO2" s="72"/>
-      <c r="DP2" s="72"/>
-      <c r="DQ2" s="72"/>
-      <c r="DR2" s="72"/>
-      <c r="DS2" s="73"/>
-      <c r="DT2" s="74" t="s">
+      <c r="DO2" s="101"/>
+      <c r="DP2" s="101"/>
+      <c r="DQ2" s="101"/>
+      <c r="DR2" s="101"/>
+      <c r="DS2" s="102"/>
+      <c r="DT2" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="DU2" s="75"/>
-      <c r="DV2" s="75"/>
-      <c r="DW2" s="75"/>
-      <c r="DX2" s="76"/>
-      <c r="DY2" s="53" t="s">
+      <c r="DU2" s="104"/>
+      <c r="DV2" s="104"/>
+      <c r="DW2" s="104"/>
+      <c r="DX2" s="105"/>
+      <c r="DY2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="DZ2" s="54"/>
-      <c r="EA2" s="54"/>
-      <c r="EB2" s="54"/>
-      <c r="EC2" s="54"/>
-      <c r="ED2" s="54"/>
-      <c r="EE2" s="54"/>
-      <c r="EF2" s="54"/>
-      <c r="EG2" s="54"/>
-      <c r="EH2" s="55"/>
-      <c r="EI2" s="56" t="s">
+      <c r="DZ2" s="83"/>
+      <c r="EA2" s="83"/>
+      <c r="EB2" s="83"/>
+      <c r="EC2" s="83"/>
+      <c r="ED2" s="83"/>
+      <c r="EE2" s="83"/>
+      <c r="EF2" s="83"/>
+      <c r="EG2" s="83"/>
+      <c r="EH2" s="84"/>
+      <c r="EI2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="EJ2" s="56"/>
-      <c r="EK2" s="56"/>
-      <c r="EL2" s="56"/>
-      <c r="EM2" s="56"/>
-      <c r="EN2" s="56"/>
-      <c r="EO2" s="56"/>
-      <c r="EP2" s="56"/>
-      <c r="EQ2" s="56"/>
-      <c r="ER2" s="56"/>
-      <c r="ES2" s="57" t="s">
+      <c r="EJ2" s="85"/>
+      <c r="EK2" s="85"/>
+      <c r="EL2" s="85"/>
+      <c r="EM2" s="85"/>
+      <c r="EN2" s="85"/>
+      <c r="EO2" s="85"/>
+      <c r="EP2" s="85"/>
+      <c r="EQ2" s="85"/>
+      <c r="ER2" s="85"/>
+      <c r="ES2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="ET2" s="57"/>
-      <c r="EU2" s="57"/>
-      <c r="EV2" s="57"/>
-      <c r="EW2" s="57"/>
-      <c r="EX2" s="57"/>
-      <c r="EY2" s="57"/>
-      <c r="EZ2" s="57"/>
-      <c r="FA2" s="57"/>
-      <c r="FB2" s="57"/>
-      <c r="FC2" s="58" t="s">
+      <c r="ET2" s="86"/>
+      <c r="EU2" s="86"/>
+      <c r="EV2" s="86"/>
+      <c r="EW2" s="86"/>
+      <c r="EX2" s="86"/>
+      <c r="EY2" s="86"/>
+      <c r="EZ2" s="86"/>
+      <c r="FA2" s="86"/>
+      <c r="FB2" s="86"/>
+      <c r="FC2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" s="59"/>
-      <c r="FE2" s="59"/>
-      <c r="FF2" s="59"/>
-      <c r="FG2" s="59"/>
-      <c r="FH2" s="59"/>
-      <c r="FI2" s="59"/>
-      <c r="FJ2" s="59"/>
-      <c r="FK2" s="59"/>
-      <c r="FL2" s="59"/>
-      <c r="FM2" s="59"/>
-      <c r="FN2" s="59"/>
-      <c r="FO2" s="59"/>
-      <c r="FP2" s="59"/>
-      <c r="FQ2" s="59"/>
-      <c r="FR2" s="59"/>
-      <c r="FS2" s="59"/>
-      <c r="FT2" s="59"/>
-      <c r="FU2" s="59"/>
-      <c r="FV2" s="59"/>
-      <c r="FW2" s="59"/>
-      <c r="FX2" s="60"/>
+      <c r="FD2" s="88"/>
+      <c r="FE2" s="88"/>
+      <c r="FF2" s="88"/>
+      <c r="FG2" s="88"/>
+      <c r="FH2" s="88"/>
+      <c r="FI2" s="88"/>
+      <c r="FJ2" s="88"/>
+      <c r="FK2" s="88"/>
+      <c r="FL2" s="88"/>
+      <c r="FM2" s="88"/>
+      <c r="FN2" s="88"/>
+      <c r="FO2" s="88"/>
+      <c r="FP2" s="88"/>
+      <c r="FQ2" s="88"/>
+      <c r="FR2" s="88"/>
+      <c r="FS2" s="88"/>
+      <c r="FT2" s="88"/>
+      <c r="FU2" s="88"/>
+      <c r="FV2" s="88"/>
+      <c r="FW2" s="88"/>
+      <c r="FX2" s="89"/>
     </row>
     <row r="3" spans="1:180" s="42" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
@@ -4189,6 +4196,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="DY2:EH2"/>
+    <mergeCell ref="EI2:ER2"/>
+    <mergeCell ref="ES2:FB2"/>
+    <mergeCell ref="FC2:FX2"/>
+    <mergeCell ref="CQ2:DA2"/>
+    <mergeCell ref="DB2:DE2"/>
+    <mergeCell ref="DF2:DH2"/>
+    <mergeCell ref="DJ2:DM2"/>
+    <mergeCell ref="DN2:DS2"/>
+    <mergeCell ref="DT2:DX2"/>
     <mergeCell ref="CO2:CP2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
@@ -4201,16 +4218,6 @@
     <mergeCell ref="BC2:BM2"/>
     <mergeCell ref="BN2:CK2"/>
     <mergeCell ref="CL2:CN2"/>
-    <mergeCell ref="DY2:EH2"/>
-    <mergeCell ref="EI2:ER2"/>
-    <mergeCell ref="ES2:FB2"/>
-    <mergeCell ref="FC2:FX2"/>
-    <mergeCell ref="CQ2:DA2"/>
-    <mergeCell ref="DB2:DE2"/>
-    <mergeCell ref="DF2:DH2"/>
-    <mergeCell ref="DJ2:DM2"/>
-    <mergeCell ref="DN2:DS2"/>
-    <mergeCell ref="DT2:DX2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid vend no" sqref="DI1:DI4 NE1:NE4 XA1:XA4 AGW1:AGW4 AQS1:AQS4 BAO1:BAO4 BKK1:BKK4 BUG1:BUG4 CEC1:CEC4 CNY1:CNY4 CXU1:CXU4 DHQ1:DHQ4 DRM1:DRM4 EBI1:EBI4 ELE1:ELE4 EVA1:EVA4 FEW1:FEW4 FOS1:FOS4 FYO1:FYO4 GIK1:GIK4 GSG1:GSG4 HCC1:HCC4 HLY1:HLY4 HVU1:HVU4 IFQ1:IFQ4 IPM1:IPM4 IZI1:IZI4 JJE1:JJE4 JTA1:JTA4 KCW1:KCW4 KMS1:KMS4 KWO1:KWO4 LGK1:LGK4 LQG1:LQG4 MAC1:MAC4 MJY1:MJY4 MTU1:MTU4 NDQ1:NDQ4 NNM1:NNM4 NXI1:NXI4 OHE1:OHE4 ORA1:ORA4 PAW1:PAW4 PKS1:PKS4 PUO1:PUO4 QEK1:QEK4 QOG1:QOG4 QYC1:QYC4 RHY1:RHY4 RRU1:RRU4 SBQ1:SBQ4 SLM1:SLM4 SVI1:SVI4 TFE1:TFE4 TPA1:TPA4 TYW1:TYW4 UIS1:UIS4 USO1:USO4 VCK1:VCK4 VMG1:VMG4 VWC1:VWC4 WFY1:WFY4 WPU1:WPU4 WZQ1:WZQ4" xr:uid="{4E70BC85-1611-44D1-A44D-AFAEEA722D6B}"/>
@@ -4251,4 +4258,45 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118E0F-B92A-4B97-8F9E-BE2AA21A09D1}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>